--- a/biology/Botanique/Grassette_des_Alpes/Grassette_des_Alpes.xlsx
+++ b/biology/Botanique/Grassette_des_Alpes/Grassette_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinguicula alpina
 La Grassette des Alpes (Pinguicula alpina L.) est une plante carnivore herbacée vivace de la famille des Lentibulariacées appartenant au genre Pinguicula. C'est une petite plante des rochers humides et des tourbières des montagnes, vivant jusqu'à 2 600 m d'altitude. Elle est présente aux hautes latitudes et altitudes de l'Eurasie. C'est une plante carnivore.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La grassette alpine est une plante terrestre à feuilles vert tendre, oblongues et possédant des poils glanduleux, à l'instance des autres grassettes du genre.
 Les fleurs font 1 cm de long, zygomorphes, à dominante blanche.
@@ -550,7 +564,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante de montagne apprécie les terrains humides et les sols tourbeux, les pâturages et rochers humides des hautes montagnes.
 </t>
@@ -581,7 +597,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve Pinguicula alpina dans les pentes de toutes les Alpes et des Pyrénées, dans le Jura et les Carpates, mais également en Mongolie nord, au Népal et au Tibet, au nord de l'Eurasie, et çà et là.
 </t>
@@ -612,7 +630,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce relativement rare n'est pas protégée en France.
 </t>
